--- a/finetuning/it_datasets/it_dataset/it_ben arous_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_ben arous_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Cafe'in located at 01 Rue Ahmed Chaouki. This top-rated destination is perfect for mqh~ lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 6S-12S. To get there, use these GPS coordinates: 36.741505910988, 10.245435615184. For more details, visit their website at https://www.google.com/maps/place/Cafe'in/@36.7398895,10.2421562,17z/data=!3m1!4b1!4m6!3m5!1s0x12fd37cbb2bb6cc5:0x6d30a3f7a0d02d1f!8m2!3d36.7398895!4d10.2421562!16s%2Fg%2F11jmys4jlj?authuser=0&amp;entry=ttu or call them at 22 461 709.</t>
+          <t>Cafe’in is a coffee shop located in Ben Arous, Tunisia (36.741506, 10.245436). It has a 5.0 rating based on 1 review. The coffee shop is open from 6 am to 12 pm on Saturdays and is closed on Sundays. The phone number for Cafe’in is 22 461 709.</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great spot to grab a coffee, check out Cafe'in located at 01 Rue Ahmed Chaouki. 
-This top-rated cafe boasts a 5.0 rating and serves a range of coffee and tea drinks to choose from. 
-It's open from 06:00-00:00 every day of the week. To get there, use these GPS coordinates: 36.741505910988, 10.245435615184. For more details, visit their website at https://www.google.com/maps/place/Cafe%27in/data=!4m7!3m6!1s0x12fd37cbb2bb6cc5:0x6d30a3f7a0d02d1f!8m2!3d36.7398895!4d10.2421562!16s%2Fg%2F11jmys4jlj!19sChIJxWy7sss3_RIRHy3QoPejMG0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 461 709.</t>
+          <t>Cafe'in is a 5-star rated cafe located in Ben Arous, Tunisia. It is open from 6 AM to midnight, every day of the week. The cafe offers a variety of coffee drinks, as well as breakfast and lunch items. It is located at 01 Rue Ahmed Chaouki, Ben Arous.</t>
         </is>
       </c>
     </row>
@@ -862,9 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great cafe, check out Cafe Chihi located at cite jaber mornag Ben arous, 2090. 
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:00-02:00. To get there, use these GPS coordinates: 36.4713336, 10.2803209. For more details, visit their website or call them at 52 095 743.</t>
+          <t>Cafe Chihi, located in the city of ben arous, offers a variety of services and amenities. The cafe is open from 05:00 to 02:00 and has received a 5-star rating from its customers. Cafe Chihi is a cafe located at the coordinates (36.4713336, 10.2803209).</t>
         </is>
       </c>
     </row>
@@ -963,7 +959,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a highly-rated maison d'hotes, visit Dar Hamouda La Medina Tunis at 31 Rue Sidi Ben Arous, Tunis 1000. With a rating of 4.6, it offers a comfortable stay for maison d'hotes lovers. For reservations, call 23 435 960 or visit https://www.google.com/maps/place/Dar+Hamouda+La+M%C3%A9dina+Tunis/data=!4m10!3m9!1s0x12fd339988c682b9:0x60ae866e8f8915cf!5m2!4m1!1i2!8m2!3d36.7984705!4d10.1701415!16s%2Fg%2F11v9k1hjzx!19sChIJuYLGiJkz_RIRzxWJj26GrmA?authuser=0&amp;hl=fr&amp;rclk=1 for more information.</t>
+          <t>Dar Hamouda La Medina Tunis is a charming guest house located in the heart of the ancient Medina of Tunis, Tunisia. It features 11 guest rooms located at Dar Hammouda, that have been carefully renovated to provide a comfortable and authentic stay. The guest house is situated on 31 Rue Sidi Ben Arous, Tunis 1000, and offers a unique opportunity to experience the rich history and culture of Tunis.</t>
         </is>
       </c>
     </row>
@@ -1070,9 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a charming place to stay, check out Dar El Medina located at Dar El Medina, 64 Rue Sidi Ben Arous, Tunis 1006. 
-This top-rated destination is perfect for Maison d'hotes lovers and also offers Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.799211500585, 10.169317959887. For more details, visit their website at http://www.darelmedina.tn/ or call them at 71 563 022.</t>
+          <t>Nestled in the heart of Tunis, Dar El Medina is a charming guesthouse offering cozy rooms and suites. Its location on Rue Sidi Ben Arous offers easy access to the city's attractions. Guests can relax in the hotel's cafe or soak up the panoramic city views from the rooftop terrace. With a rating of 4.4, Dar El Medina promises a memorable and authentic Tunisian experience.</t>
         </is>
       </c>
     </row>
@@ -1171,10 +1165,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to stay, check out Dar Hamouda La Medina Tunis at 31 Rue Sidi Ben Arous, Tunis 1000. 
-This top-rated guest house is perfect for travelers who love Maison d'hotes and offers a cozy and authentic experience. 
-With a rating of 4.6, it's a popular choice among visitors. It's open 24/7, so you can check in at your convenience. 
-To get there, use these GPS coordinates: 36.798473809286, 10.170155731109. For more details, visit their website at https://www.google.com/maps/place/Dar+Hamouda+La+M%C3%A9dina+Tunis/data=!4m10!3m9!1s0x12fd339988c682b9:0x60ae866e8f8915cf!5m2!4m1!1i2!8m2!3d36.7984705!4d10.1701415!16s%2Fg%2F11v9k1hjzx!19sChIJuYLGiJkz_RIRzxWJj26GrmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 435 960.</t>
+          <t>Dar Hamouda La Medina Tunis is a charming guest house located in the heart of Tunis' Medina, a UNESCO World Heritage Site. With 11 reviews and a 4.6-star rating, this guest house offers a comfortable and authentic Tunisian experience. Recently renovated, Dar Hamouda La Medina Tunis features a traditional architectural style and offers a range of room options at competitive prices. It is situated on 31 Rue Sidi Ben Arous in Tunis 1000 and can be reached by phone at 23 435 960.</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1268,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Restaurant Route 66 located at 16 Avenue du 14 Janvier 2011, Ben Arous 2013. This Restaurant is a must-visit spot with a rating of 3.3. It's open during these hours: 11:00-21:30. To get there, use these GPS coordinates: 36.755546740027, 10.220259740037. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Route+66/data=!4m7!3m6!1s0x12fd37e70e7e2235:0xa71b62a65dae372a!8m2!3d36.7548439!4d10.2211165!16s%2Fg%2F11jd8ws5sw!19sChIJNSJ-Duc3_RIRKjeuXaZiG6c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 494 949.</t>
+          <t>Restaurant Route 66 is located in Ben Arous, Tunisia, at the coordinates (36.755546740027, 10.220259740037). It offers a variety of dining options, including pizza, fast food, and delivery. The restaurant has received an average rating of 3.3 stars from 53 reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1367,10 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you are in ben arous and looking for a Station de metro, check out Ben Arous located at Ben Arous. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.transtu.tn/fr/</t>
+          <t>**Ben Arous, Station de Metro** is a popular station in Ben Arous, Tunisia. It's well-connected to the city and offers a variety of services to its passengers.
+Located at coordinates (36.7419111, 10.2291509), Ben Arous Station is easily accessible from all parts of the city. It's also within walking distance of several major attractions, including the Ben Arous City Center and the Bab el Khadra Market.
+The station provides a clean and comfortable environment for passengers. There are plenty of seats, vending machines, and a ticket office on the premises. The staff is friendly and helpful, and they can assist you with any questions or concerns you may have.
+Ben Arous Station is a great option for travelers looking for a convenient and affordable way to get around the city. With its central location and excellent service, it's sure to make your trip more enjoyable.</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1477,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something related to Administration locale, check out IRIE Ben Arous located at IRIE Ben Arous, Rue Ibn Zaydoun, Cite du Stade, Ben Arous 2013. This top-rated destination is perfect for Administration locale lovers and offers a range of categories to choose from. With a rating of 3.8, it's a must-visit spot. It's open during these hours: 08:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7637624, 10.226791. For more details, visit their website at http://www.isie.tn/ or call them at 70 018 545.</t>
+          <t>The IRIE Ben Arous, located at 36.7637624 latitude and 10.226791 longitude, is a local administration office. It is open from 8am to 5pm during weekdays, except Sundays. The website link of the office is http://www.isie.tn/.</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1572,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Municipalite Ben Arous located at P6XF+8R9 Municipalite Ben Arous, Ben Arous. This top-rated destination with a rating of 3.8 is perfect for Hotel de ville lovers. For more details, visit their website at https://www.google.com/maps/place/Municipalit%C3%A9+Ben+Arous/data=!4m7!3m6!1s0x12fd365d6c824e3d:0x1506924b8df3eec0!8m2!3d36.7482753!4d10.2246083!16s%2Fg%2F11dxm5bjwl!19sChIJPU6CbF02_RIRwO7zjUuSBhU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Municipalite Ben Arous is a town hall located in the city of Ben Arous, Tunisia. The town hall offers a variety of services to the residents of Ben Arous, including administrative services, social services, and economic development services. The town hall is also home to a number of cultural and recreational facilities, including a library, a museum, and a theater. The Municipalite Ben Arous is located at P6XF+8R9, Ben Arous, Tunisia. Its coordinates are 36.7480722, 10.2246756.</t>
         </is>
       </c>
     </row>
@@ -1677,9 +1671,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Mosquee Hammouda-Pacha located at Q5XC+74W Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, Tunis. 
-This top-rated destination is perfect for Mosquee lovers and offers a range of Mosquee, Attraction touristique categories to choose from. 
-With a rating of 4.6, it's a must-visit spot. For more details, visit their website at https://www.zitounatunisia.com/%3Fm%3D1 or call them at None.</t>
+          <t>Mosquee Hammouda-Pacha, a captivating architectural gem, is nestled in the heart of Tunis, Tunisia. Step back in time as you explore this historic landmark, where religious fervor blends with awe-inspiring beauty. Its prime location, right on Mosquee Hammouda-Pacha, Rue Sidi Ben Arous, makes it easily accessible for visitors seeking spiritual enlightenment and a glimpse into the city's rich cultural heritage.</t>
         </is>
       </c>
     </row>
@@ -1770,9 +1762,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Only for kings located at P6WC+C2J Only for kings, Rue ksar hellal, Ben Arous. 
-This top-rated destination is perfect for Musee lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.733446501537, 10.236737001798.</t>
+          <t>"Only for kings" is a museum located in Ben Arous (coordinates: 36.733446501537, 10.236737001798). It is highly rated with a 5.0 out of 5 stars based on two reviews.</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1853,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>In ben arous, consider visiting Only for kings at Rue ksar hellal, Ben Arous. Rated 5.0, this popular Musee has received 2 reviews and is a must-visit destination. Use the GPS coordinates 36.733446501537, 10.236737001798 to find your way there.</t>
+          <t>**Only for kings** is a museum located in Ben Arous, Tunisia. It has been rated 5.0 out of 5 stars by 2 visitors. Even though its description is not available, this place seems to be a popular destination amongst tourists.</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1956,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated beauty store, check out BioEclat naturel located at BioEclat naturel, bloc &lt;&lt; c &gt;&gt;, Residence el zouhour app13, Ben Arous 2074. This must-visit spot has a 5.0 rating and offers a range of beauty products to choose from. It's open during these hours: 09:00-17:00, but closed on Saturday and Sunday. To get there, use these GPS coordinates: 36.7306903, 10.2040316. For more details, call them at 56 721 938.</t>
+          <t>The BioEclat naturel, located at Ben Arous, offers a vast collection of beauty products. The store proudly holds a 5-star rating and is open from 09:00 to 17:00. The location is easily accessible, situated at specific geographical coordinates. With its convenient location and glowing reviews, this store is an excellent destination for beauty enthusiasts who value quality products and exceptional customer service.</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2059,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out For Family Natural Concept located at 5 Av. 13 Aout, Ben Arous 2096. This top-rated destination is perfect for Epicerie fine lovers and offers a range of Epicerie fine to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-19:30. To get there, use these GPS coordinates: 36.740706193606, 10.237029907404. For more details, visit their website at https://www.google.com/maps/place/For+Family+Natural+Concept/data=!4m7!3m6!1s0x12fd3724a4803ac7:0x243e0ab0ae4e5ef9!8m2!3d36.7407466!4d10.2370016!16s%2Fg%2F11rfsvpwt9!19sChIJxzqApCQ3_RIR-V5OrrAKPiQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 990 036.</t>
+          <t>For Family Natural Concept is an Epicerie fine located in Ben Arous, Tunisia. It offers a wide selection of fine foods, including many local specialties. The store is located at 5 Av. 13 Aout, Ben Arous 2096, and it is open from 09:00 to 19:30 every day.</t>
         </is>
       </c>
     </row>
@@ -2176,9 +2166,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Palmiland located at Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033.
-This top-rated destination is perfect for Magasin bio lovers and offers a range of Magasin bio to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.763508294992, 10.245939576977. For more details, visit their website at https://palmiland.tn/ or call them at 99 066 010.</t>
+          <t>Palmiland is an organic store located in Ben Arous (Tunisia), offering a wide variety of products. It is open 24 hours a day and can be contacted by phone at 99 066 010. The store's address is Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033, and it has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -2285,9 +2273,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Palmiland located at Palmiland, Av. Farhat Hached Megrine Sidi rezig, Ben Arous 2033. 
-This top-rated destination is perfect for Magasin bio lovers and offers a range of Magasin bio to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 36.763508294992, 10.245939576977. For more details, visit their website at https://palmiland.tn/ or call them at 99 066 010.</t>
+          <t>Palmiland is a health food store located in ben arous, Tunisia at 36.763508294992, 10.245939576977, Their website is https://palmiland.tn/ . They are open 24/7 and can be contacted at 99 066 010.</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2380,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Charab Chifa located at 71 RUE DE LA REPUBLIQUE MEGRINE BEN AROUS, 2033. This top-rated destination is perfect for Magasin d'alimentation naturelle lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on . To get there, use these GPS coordinates: 36.770035688193, 10.243920083271. For more details, visit their website at http://www.charab-chifa.com/ or call them at 71 295 886.</t>
+          <t>Charab Chifa is a natural food store located in ben arous (36.770035688193, 10.243920083271). It offers a wide variety of products, including honey, and has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -2497,11 +2483,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Superette MAYSSA located at P7V4+49Q Superette MAYSSA, Ben Arous 2063. 
-This top-rated destination is perfect for Magasin d'alimentation naturelle lovers and offers a range of Magasin d'alimentation naturelle to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 07:30-22:00. 
-To get there, use these GPS coordinates: 36.742845, 10.2559416. For more details, visit their website 
-at https://www.google.com/maps/place/Superette+MAYSSA/data=!4m7!3m6!1s0x12fd3621156f1549:0x836abdfe522ab4b0!8m2!3d36.7428445!4d10.2559902!16s%2Fg%2F11cr__t6jy!19sChIJSRVvFSE2_RIRsLQqUv69aoM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 058 317.</t>
+          <t>Superette MAYSSA is a natural grocery store located in Ben Arous. The store is specialized in organic products of all kinds and has a rating of 4.5 out of 5 on Google. The store is open every day from 7:30 AM to 10:00 PM.</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2586,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out For Family Natural Concept located at 5 Av. 13 Aout, Ben Arous 2096. This top-rated destination is perfect for Epicerie fine lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-19:30. To get there, use these GPS coordinates: 36.740706193606, 10.237029907404. For more details, visit their website at  or call them at 29 990 036.</t>
+          <t>For Family Natural Concept is a delicatessen located in Ben Arous (Tunisia), offering a wide range of natural and organic products. Situated at 5 Av. 13 Aout, it opens from 09:00 to 19:30 and is highly rated with a 4.0 stars rating. The delicatessen provides a convenient and healthy shopping experience for its customers, offering a variety of products tailored to their needs.</t>
         </is>
       </c>
     </row>
@@ -2691,9 +2673,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Ecovillage located at P7G4+9HQ Ecovillage, Centre Commercial AZUR CITY. 
-This top-rated destination is perfect for lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at  or call them at .</t>
+          <t>The Ecovillage is located in the Centre Commercial AZUR CITY, Ben Arous. It has a 5.0 rating based on one review. The Ecovillage offers various products and services, ensuring a memorable experience.</t>
         </is>
       </c>
     </row>
@@ -2800,10 +2780,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a place to eat, check out Chicago's Food &amp; Drink located at 6 Rue De Gaza, Ben Arous 2014. 
-This top-rated restaurant is perfect for diners and offers a range of delicious food to choose from.
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on Sundays. 
-To get there, use these GPS coordinates: 51.8798574, -0.4190164. For more details, visit their website at https://www.facebook.com/ChicagosFood/ or call them at 27 358 065.</t>
+          <t>Chicago's Food &amp; Drink is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including sandwiches, burgers, salads, and more. The restaurant has received positive reviews, with many customers praising the food and service. It is also conveniently located, making it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2910,9 +2887,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Le coin de el medina located at P7X2+R84 Le coin de el medina, A cote cafe El BELLAR, Rue Du Lieutenant Mohamed Ezzaghbani, Ben Arous 2063. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on none. To get there, use these GPS coordinates: 36.752242484154, 10.250200676228. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100084707864049 or call them at 95 873 738.</t>
+          <t>Le coin de el medina is a fast food restaurant located in Ben Arous, Tunisia. It is located at the coordinates (36.752242484154, 10.250200676228) and can be contacted at 95 873 738. The restaurant is open from 09:00 to 23:00 and is closed on Mondays. The restaurant has a rating of 4.8 out of 5 on Google and has received 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -3015,9 +2990,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Bongout Cafe Resto located at Centre commercial, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on . To get there, use these GPS coordinates: 36.7393478, 10.2091739. For more details, visit their website at  or call them at 24 324 441.</t>
+          <t>Bongout Cafe Resto is a highly-rated restaurant in Ben Arous, Tunisia, known for its delectable cuisine and cozy ambiance. Nestled in the heart of the city, it offers a convenient location for locals and visitors alike. Bongout Cafe Resto has garnered 6 positive reviews, making it a must-visit for those seeking a memorable dining experience. Its extensive menu caters to various tastes, and its prime location makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3093,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated restaurant, check out ZONE 51 located at 3, ZONE 51. With a rating of 4.5, this restaurant is a must-visit spot. It's open during these hours: 09:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/ZONE+51/data=!4m7!3m6!1s0x12fd37312267385b:0x5d2b711478aa509d!8m2!3d36.7408627!4d10.2520003!16s%2Fg%2F11l2w47n78!19sChIJWzhnIjE3_RIRnVCqeBRxK10?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 287 312.</t>
+          <t>The ZONE 51 is a popular restaurant located in Ben Arous, Tunisia, featuring a diverse menu of delectable dishes. With an impressive rating of 4.5, it attracts diners from near and far. Geographically, it is situated at the coordinates (36.7419111, 10.2291509), making it easily accessible. The restaurant caters to customers from Monday to Saturday, remaining closed on Sundays, and offers a welcoming ambiance from 9:00 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3196,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Top cafe located at 03 bis rue du mercure. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 05:30-15:30, but closed on dimanche. To get there, use these GPS coordinates: 36.751573750217, 10.237681448638. For more details, visit their website at https://www.google.com/maps/place/Top+caf%C3%A9/data=!4m7!3m6!1s0x12fd37a9e94d72d3:0x765cf730ed902e97!8m2!3d36.7435003!4d10.2319757!16s%2Fg%2F11h84r3yly!19sChIJ03JN6ak3_RIRly6Q7TD3XHY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 457 755.</t>
+          <t>Located at 03 bis rue du mercure, Ben Arous 2013, Top cafe is a cafe and grill restaurant that opens every day from 05:30 to 15:30 except Sundays. The restaurant has a 4.8 rating based on 5 reviews and offers a variety of dishes.</t>
         </is>
       </c>
     </row>
@@ -3326,9 +3299,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out PIZZARIA PAPA'S Pizza a bois located at P6WG+Q77 PIZZARIA PAPA'S Pizza a bois, Av. de la Republique, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 36.737164666123, 10.248939136835. For more details, visit their website or call them at 96 513 815.</t>
+          <t>PIZZARIA PAPA'S Pizza a bois is a pizzeria located on Av. de la Republique in Ben Arous, Tunisia. It offers wood-fired pizzas and has a rating of 4.6 out of 5 stars on Google Maps. The pizzeria is open from 11:00am to 22:00pm and is closed on Fridays. Its coordinates are 36.737164666123, 10.248939136835.</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3398,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Fricasse Fardaws located at P6XC+778 Fricasse Fardaws, Ben Arous. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-21:00, but closed on []. To get there, use these GPS coordinates: 36.734726716394, 10.31555792038.</t>
+          <t>Fricasse Fardaws is a highly rated (4.8/5) Tunisian restaurant located in Ben Arous, Tunisia (lon: 10.31555792038, lat: 36.734726716394). The restaurant is open daily from 6 AM to 9 PM and serves a variety of traditional Tunisian dishes and drinks.</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3505,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Amigos located at P6X9+WPV Amigos, Rue Naser bey, Ben Arous. This must-visit spot is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.736026735982, 10.31052032484. For more details, visit their website at https://www.facebook.com/Amigos-101000905760002 or call them at 54 423 625.</t>
+          <t>Amigos, located on Rue Naser bey, Ben Arous, is a restaurant offering a great dining experience with a 4.7-star rating. Open 24 hours a day, Amigos has received positive reviews, highlighting its exceptional offerings. With a main category of Restaurant, Amigos provides a variety of delicious dishes to satisfy any craving.</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3608,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, make sure to visit Restaurant Makrem at Restaurant Makrem, N46, Av. Habib Bourguiba. With a rating of 5.0, it's a must-visit spot for Restaurant lovers. It's open during these hours: 08:30-23:00, but closed on []. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865. For more details, visit their website at nan or call them at 54 609 665.</t>
+          <t>**Restaurant Makrem**: A reputable restaurant in Ben Arous, serving delicious local cuisine with a 5-star rating based on 3 positive reviews. Located at N46, Av. Habib Bourguiba (coordinates: 36.752275483472, 10.224074684865), it's well-known among locals for its high-quality food and cozy ambiance. With extended hours from 8:30 AM to 11:00 PM, Makrem offers a convenient dining experience. The establishment has a friendly owner, providing a welcoming atmosphere for guests.</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3703,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Errouge located at Q65G+WGW Errouge, Ben Arous. This destination is perfect for Restaurant lovers and has a rating of 4.7. It's open during these hours: 10:00-14:00. To get there, use these GPS coordinates: (36.7598857, 10.2263836).</t>
+          <t>Errouge is a highly-rated (4.7/5) restaurant located in Ben Arous, Tunisia at coordinates (36.7598857, 10.2263836). Its primary category is Restaurant, but no further details about its offerings or ambiance are available.</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3806,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to eat, check out Fast Food Rapido located at 85, C35, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 36.722174, 10.2136467. For more details, visit their website or call them at 28 772 518.</t>
+          <t>Fast Food Rapido is a Restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on 3 reviews. Fast Food Rapido is open from 10:00-22:00, Monday-Saturday.</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3909,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for somewhere to grab a great meal, look no further than Bon Gout on P6PP+HFP. Their top-rated restaurant offers a range of dining options, perfect for any foodie. With a rating of 5.0, this is a must-visit spot in the city. They're open during these hours: 07:00-00:00, but closed on [closed days, if any]. To get there, use these GPS coordinates: 36.7088134, 10.1779697. For more details, visit their website or call them at 90 007 904.</t>
+          <t>**Bon Gout** is a highly-rated restaurant (5/5) located in Ben Arous, Tunisia. It serves a variety of dishes and can be found at the coordinates (36.7088134, 10.1779697). It is open from 7 am to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4004,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great meal, check out Mlewi Khmissa located at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-17:00, but closed on dimanche. To get there, use these GPS coordinates: (36.7564777, 10.2280057).</t>
+          <t>Mlewi Khmissa is a restaurant located in Ben Arous, Tunisia, offering a dining experience with a 4.3-star rating based on 3 reviews. It is open from 10:00 to 17:00 during weekdays, but closed on Sundays. The exact location is at Q64H+H5X Mlewi Khmissa, Unnamed Road, Ben Arous, and the coordinates are (36.7564777, 10.2280057). Unfortunately, there is no further information available regarding its website, featured image, and review keywords.</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4107,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated dining experience, check out Restaurant Princesse located at Rue de Paris. This 5-star restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. It's open during these hours: 09:00-22:00, but closed on . To get there, use these GPS coordinates: 48.851944133018, 2.334641298819. For more details, visit their website or call them at 90 178 732.</t>
+          <t>The Restaurant Princesse is a cozy dining spot located at Rue de Paris, Q63G+97V, Ben Arous. Open from 09:00 to 22:00, it features a single main category of Restaurant, offering delicious cuisine for food enthusiasts. With a rating of 5.0, it's a highly-rated choice among diners. You can contact the restaurant at 90 178 732 for reservations or inquiries.</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4210,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great place to eat, check out Resto Mahdouch located at P6XC+77M Resto Mahdouch, Unnamed Road, Ben Arous. This top-rated restaurant with a 4.5 rating is open from 08:00-21:00 on all days except for dimanche. You can contact them at 98 917 177 for more details.</t>
+          <t>Resto Mahdouch is a highly-rated restaurant situated in Ben Arous (36.7419111, 10.2291509) and offers a delightful dining experience. Open from 8:00 am to 9:00 pm during weekdays, it remains closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4342,7 +4313,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you find yourself in ben arous, Restaurant mshwy slym is a must-visit spot for Restaurant enthusiasts. Located at Restaurant mshwy slym, Km8 route de mornage, Ben Arous 2068, this top-rated destination offers a range of Restaurant options to choose from. With an impressive 5.0 rating, it's a spot you won't want to miss. Operating hours are from 07:00-22:00 during the week, but it's closed on dimanche. For more details, you can visit their website or give them a call at 53 433 409.</t>
+          <t>Restaurant mshwy is located on the Km8 of the Mornag road in Ben Arous, Tunisia. It is a restaurant that is open every day from 7:00 AM to 10:00 PM except on Sundays.</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4416,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Chez sam sam located at 24 Av. de France, Ben Arous. This highly-rated destination offers a range of categories to choose from and is a must-visit spot. It's open during these hours: 07:45-17:00, but closed on dimanche. For more details, visit their website or call them at 99 969 920.</t>
+          <t>Chez Sam Sam is a restaurant located in Ben Arous, Tunisia, known for its high rating of 5.0 and offers a great dining experience. It is situated at the coordinates (36.757983204481, 10.221989931531), making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -4544,9 +4515,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Best Food located at P7V4+479 Best Food, Ben Arous 2063. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on dimanche. To get there, use these GPS coordinates: 36.7419341, 10.2651902. For more details, visit their website at https://www.google.com/maps/place/Best+Food/data=!4m7!3m6!1s0x12fd36216aa030c1:0xd0f2b5ac7dc90042!8m2!3d36.7427956!4d10.2557477!16s%2Fg%2F11c5441236!19sChIJwTCgaiE2_RIRQgDJfay18tA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Best Food is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 out of 5 stars based on 2 reviews. The restaurant is open from 11:00 AM to 00:00 AM every day except Sundays. It is located at the coordinates (36.7419341, 10.2651902).</t>
         </is>
       </c>
     </row>
@@ -4641,10 +4610,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in ben arous, Restaurant Chez ALLEL is the place for you! 
-This awesome spot located at 58 Av. de France, is perfect for Restaurant lovers. 
-With a 5.0 rating, you know it's worth your visit. 
-To get there, just plug in the GPS coordinates: 36.761469215509, 10.224546236091.</t>
+          <t>Restaurant Chez ALLEL is a 5-star rated restaurant located in Ben Arous, Tunisia, offering a dining experience with a focus on quality and customer satisfaction. It is situated at the coordinates (36.761469215509, 10.224546236091), making it easily accessible for visitors. With a focus on providing a memorable dining experience, Chez ALLEL aims to cater to the diverse tastes and preferences of its discerning clientele.</t>
         </is>
       </c>
     </row>
@@ -4747,9 +4713,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out The king place located at P7V4+35R The king place, Unnamed Road, Ben Arous. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:30-00:00. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/The+king+place/data=!4m7!3m6!1s0x12fd3786dce049e3:0x7b31334f18a7dc09!8m2!3d36.7427254!4d10.255402!16s%2Fg%2F11spdfz79g!19sChIJ40ng3IY3_RIRCdynGE8zMXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 304 781.</t>
+          <t>"The King Place" is a fast food restaurant located in Ben Arous, Tunisia. It offers a variety of dishes, including burgers, sandwiches, and wraps. The restaurant is open from 11:30 AM to midnight, and is closed on Sundays. It has a rating of 5.0 out of 5 stars on Google Reviews.</t>
         </is>
       </c>
     </row>
@@ -4852,9 +4816,10 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a great dining experience, check out Wida JUCE Ezahra located at P6WG+H77 Wida JUCE Ezahra, Av. de la Republique, Ben Arous. 
-This top-rated destination is perfect for Restaurant enthusiasts and offers a range of Restaurant options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on []. To get there, use these GPS coordinates: 36.737164666123, 10.248939136835. For more details, visit their website at nan or call them at 28 440 669.</t>
+          <t>Restaurant named Wida JUCE Ezahra located in ben arous with following details:
+- Work hours: 11:00 AM to 11:00 PM
+- Rating: 4.0
+- Main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4922,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a fantastic dining experience, visit Dar Fatma, located on Av. de la Republique, Ben Arous. This top-rated restaurant is perfect for food enthusiasts and offers a menu filled with delectable dishes. With an impressive rating of 5.0, it's a must-visit spot. Dar Fatma is open daily from 08:00-22:00. For more information, call them at 22 736 166.</t>
+          <t>Dar Fatma is a restaurant located in Ben Arous, Tunisia. It has a rating of 5.0 based on one review and offers a variety of food options. The restaurant is located at the coordinates (36.739980239295, 10.2527309193).</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5025,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out djj lmdyn@ located at djj lmdyn@, Unnamed Road, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-20:00. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, call them at 97 411 133.</t>
+          <t>djj lmdyn@ is a restaurant located in Ben Arous, Tunisia. It offers a variety of dishes and has a rating of 5.0. The restaurant is open from 07:00 to 20:00 and is closed on . The restaurant's phone number is 97 411 133 and its website is nan.</t>
         </is>
       </c>
     </row>
@@ -5163,9 +5128,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out mlwy smy@ Mlawi Samia located at mlwy smy@ Mlawi Samia, nhj lQTr, Rue El Guettar, Ben Arous 2013. 
-This top-rated destination is perfect for Restaurant arabe lovers and offers a range of Restaurant arabe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-20:00, but closed on dimanche. To get there, use these GPS coordinates: 36.744547777748, 10.219834878116. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%84%D8%A7%D9%88%D9%8A+%D8%B3%D8%A7%D9%85%D9%8A%D8%A9+Mlawi+Samia%E2%80%AD/data=!4m7!3m6!1s0x12fd371c79ca587f:0xe00723f1ba05efcf!8m2!3d36.7438587!4d10.220141!16s%2Fg%2F11l6shhx0v!19sChIJf1jKeRw3_RIRz-8FuvEjB-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 775 777.</t>
+          <t>**mlwy smy@ Mlawi Samia** is a well-rated (5.0) Arabic restaurant located in Ben Arous (36.744547777748, 10.219834878116). Operating from 7:00 AM to 8:00 PM on weekdays, it is closed on Sundays. The restaurant offers a diverse menu of Arabic cuisine.</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5235,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a place to eat, check out Chez le prince located at P7R2+FRJ. This top-rated restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on none. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61550528174956%26mibextid%3DZbWKwL or call them at 56 918 362.</t>
+          <t>Chez le prince, located in Ben Arous, is a 5-star rated restaurant open 24 hours a day. It offers a dining experience with a focus on providing high-quality cuisine in a cozy and welcoming atmosphere. The restaurant's exact location is at 36.7419111 latitude and 10.2291509 longitude.</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5330,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated Restaurant, check out Mlawi Turc located at Mlawi Turc, N46, Av. Habib Bourguiba, Ben Arous. This destination has a rating of 5.0 and is a must-visit spot for Restaurant lovers. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865.</t>
+          <t>Mlawi Turc is a restaurant located in ben arous, Tunisia, precisely at (36.752275483472, 10.224074684865). It has a rating of 5.0 out of 1 review, and its main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -5466,9 +5429,9 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant Hammami located at P57M+X5J Restaurant Hammami, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-22:00. To get there, use these GPS coordinates: 36.7152421, 10.3610699.</t>
+          <t>Restaurant Hammami is a highly rated (4.0/5 stars) restaurant situated in the heart of Ben Arous,Tunisia.
+This restaurant is accessible at the following coordinates (36.7152421, 10.3610699) and offers a wide array of culinary delights.
+You can visit it between 10 AM to 10 PM every day of the week and savor the delectable dishes they have to offer.</t>
         </is>
       </c>
     </row>
@@ -5571,9 +5534,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant Princesse located at Rue de Paris, Ben Arous. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 48.851944133018, 2.334641298819. For more details, visit their website at or call them at 90 178 732.</t>
+          <t>Restaurant Princesse is a highly-rated (5.0/5) eatery located in Ben Arous, Tunisia. It is open daily from 09:00-22:00 and is conveniently located near Rue de Paris. Despite not having an official website, it has garnered positive reviews on Google Maps for its delicious cuisine and friendly service.</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5629,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Restaurant lina located at Q63F+4FP Restaurant lina, Ben Arous. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7434809, 10.2346424. For more details, visit their website at https://www.google.com/maps/place/Restaurant+lina/data=!4m7!3m6!1s0x12fd3743236d9edf:0x2ee7232fa0148d39!8m2!3d36.752825!4d10.2237016!16s%2Fg%2F11hyt753hl!19sChIJ355tI0M3_RIROY0UoC8j5y4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant lina is a highly rated restaurant in Ben Arous, Tunisia. It has received 2 reviews and has a perfect 5.0 rating. The main category of Restaurant lina is Restaurant. It is located at the coordinates (36.7434809, 10.2346424).</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5736,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a Station-service, check out Station-service TotalEnergies BORJ GHORBAL located at Station-service TotalEnergies BORJ GHORBAL, C35, Ben Arous 2013. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 3.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7570728, 10.2424877. For more details, visit their website at https://services.totalenergies.tn/ or call them at 79 328 740.</t>
+          <t>Station-service TotalEnergies BORJ GHORBAL is situated in Ben Arous, Tunisia at the coordinates (36.7570728, 10.2424877). This place offers 24/7 service and has a rating of 3.1 out of 5 based on 18 reviews. Unfortunately, there is no description available, but it is categorized as a gas station.</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5835,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Ben Arous located at Ben Arous. This top-rated destination is perfect for Station de metro lovers and offers a range of Station de metro to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.transtu.tn/fr/.</t>
+          <t>Ben Arous is a metro station in Ben Arous, Tunisia. It is part of the Tunis Metro Line 2. The station is located at the city center, next to the Ben Arous railway station. It offers easy access to the city's main attractions, including the Medina of Ben Arous, the Great Mosque of Ben Arous, and the Ben Arous Archaeological Museum. The station is well-connected to the rest of the city by public transportation, making it a convenient option for both tourists and locals.</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5934,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a gas station, check out AGIL located at AGIL, C35, Ben Arous 2096. This top-rated destination is perfect for those who need to refuel and offers a range of fuel options to choose from. With a rating of 3.8, it's a must-visit spot. It's open 24 hours a day, so you can get gas whenever you need it. To get there, use these GPS coordinates: 36.7392894, 10.2401111.</t>
+          <t>AGIL is a gas station in ben arous.It is located at (36.7392894, 10.2401111).It is open 24h/24.</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6029,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a top-rated destination, check out Bir Kassaa. This highly-rated establishment is a must-visit spot for Gare lovers and offers a range of Gare to choose from. With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.73894, 10.21122.</t>
+          <t>Bir Kassaa, located in Bir Kassaa, Ben Arous, Tunisia, is a railway station with a rating of 3.6 based on 11 reviews. It features a prominent featured image showcasing its exterior. The station offers convenient transportation services for travelers in the area.</t>
         </is>
       </c>
     </row>
@@ -6171,9 +6132,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out OLA located at Q7RF+HJP OLA, Ben Arous. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 3.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.7419111, 10.2291509. For more details, visit their website at https://www.google.com/maps/place/OLA/data=!4m7!3m6!1s0x12fd4a6c4cab3b95:0x6c6707e886923ae5!8m2!3d36.7914689!4d10.2740662!16s%2Fg%2F11ddx1sr7g!19sChIJlTurTGxK_RIR5TqShugHZ2w?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 71 449 290.</t>
+          <t>OLA is a gas station located in OLA, Ben Arous, Tunisia. It offers 24/7 services and can be contacted at 71 449 290.</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6227,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you are in ben arous and looking for a Station-service, AGIL located at Q67F+RMX AGIL, Ben Arous is a perfect choice. This top-rated spot offers a range of services for your automotive needs. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7392894, 10.2401111. For more details, visit their website at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12fd367a30975911:0x19ff49a577bc318e!8m2!3d36.7646003!4d10.2242224!16s%2Fg%2F11gbxb3p46!19sChIJEVmXMHo2_RIRjjG8d6VJ_xk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at the provided number.</t>
+          <t>AGIL is a gas station located in Ben Arous, Tunisia. It is situated at coordinates (36.7392894, 10.2401111) and offers a wide range of services, including fuel, lubricants, and car maintenance. AGIL is well-known for its friendly staff and competitive prices, making it a popular choice for motorists in the area.</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6322,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Benarous2 located at Av. Habib Bourguiba, Ben Arous. This top-rated destination is perfect for Arret de bus lovers and offers a range of Arret de bus to choose from. With a rating of 3.2, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 36.752275483472, 10.224074684865. For more details, visit their website at or call them at .</t>
+          <t>Benarous2 is a bus stop located in Ben Arous, Tunisia. It is situated on Habib Bourguiba Avenue and has a rating of 3.2 stars based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -6458,7 +6417,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Gare Nouvelle Medina located at Gare Nouvelle Medina, N1. This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.73887, 10.23777. For more details, visit their website at https://www.google.com/maps/place/Gare+Nouvelle+Medina/data=!4m7!3m6!1s0x12fd36185fdb7bd9:0xfb29dbd60f0b79d2!8m2!3d36.748557!4d10.2515129!16s%2Fg%2F11b7q5q3qg!19sChIJ2XvbXxg2_RIR0nkLD9bbKfs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Gare Nouvelle Medina is a bustling bus station located in the Ben Arous region. Situated at the coordinates (36.73887, 10.23777), it offers convenient transportation services to various destinations. With a rating of 2.0 based on 3 reviews, the station provides a vital connection point for locals and travelers.</t>
         </is>
       </c>
     </row>
@@ -6549,7 +6508,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for somewhere to get petrol, check out wkl@ lfHS lfnWy llsyWrt bbn `rws located at Q65J+J28 wkl@ lfHS lfnWy llsyWrt bbn `rws, Rue Des Metaux, Ben Arous. This top-rated destination is perfect for Station-service lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.759420770151, 10.230314131191.</t>
+          <t>This unnamed gas station, located in Ben Arous (Tunisia), at the coordinates (36.759420770151, 10.230314131191) has a rating of 4.0 out of 5 based on 1 review. However, there isn't any additional information regarding the offered services, opening hours, or website.</t>
         </is>
       </c>
     </row>
@@ -6644,9 +6603,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for a Station-service, check out Cle Pro &amp; Alarmes located at Rue de Bizerte, Ben Arous. 
-This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on dimanche. To get there, use the link https://www.google.com/maps/place/Cl%C3%A9+Pro+%26+Alarmes/data=!4m7!3m6!1s0x12fd379b48dc9199:0xda7aa853b15ddccb!8m2!3d36.7605771!4d10.2268561!16s%2Fg%2F11j35b3gt5!19sChIJmZHcSJs3_RIRy9xdsVOoeto?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 187 993.</t>
+          <t>**Cle Pro &amp; Alarmes** is a gas station located in Ben Arous, Tunisia. It offers a wide range of services including fuel, car wash, and tire repair. The gas station is open from 9 AM to 5 PM, Monday through Saturday.</t>
         </is>
       </c>
     </row>
@@ -6741,9 +6698,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Bir Kassaa located at Bir Kassaa, Ben Arous. 
-This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. 
-With a rating of 3.6, it's a must-visit spot. To get there, use these GPS coordinates: 36.73894, 10.21122. For more details, visit their website at  or call them at .</t>
+          <t>Bir Kassaa is a train station located in Ben Arous, Tunisia. It is conveniently situated at coordinates (36.73894, 10.21122), making it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -6838,9 +6793,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in ben arous and looking for something fun to do, check out Gare Nouvelle Medina located at Gare Nouvelle Medina, N1, Ben Arous. 
-This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. 
-With a rating of 2.0, it's a must-visit spot. GPS coordinates: 36.73887, 10.23777</t>
+          <t>Gare Nouvelle Medina is a bus station located in Ben Arous, Tunisia. It offers transportation services to various destinations. The station is conveniently located at (36.73887, 10.23777), making it easily accessible to travelers. The station operates with a team of friendly staff dedicated to providing a comfortable and efficient travel experience.</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6888,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Ben Arous and looking for a gare, check out Bir Kassaa located at Bir Kassaa, Ben Arous. This top-rated destination is perfect for gare lovers and has a rating of 3.6. For more details, visit their website at https://www.google.com/maps/place/Bir+Kassaa/data=!4m7!3m6!1s0x12fd36451dae2353:0xffca475df39a585b!8m2!3d36.7410163!4d10.2282554!16s%2Fg%2F1xtdzs_l!19sChIJUyOuHUU2_RIRW1ia811Hyv8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Bir Kassaa is a railway station located in Bir Kassaa, Ben Arous, Tunisia. It is rated 3.6 stars on Google Maps based on 11 reviews. Its geographical coordinates are (36.73894, 10.21122). The primary category associated with this place is "Gare" (Railway station)</t>
         </is>
       </c>
     </row>
